--- a/src/test/java/apps/provider/search_data.xlsx
+++ b/src/test/java/apps/provider/search_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>飞信</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,14 +63,6 @@
   <si>
     <t>expectResult2</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ikiwi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -428,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -480,14 +472,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
